--- a/CSV/技能.xlsx
+++ b/CSV/技能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MuQianQiu\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1197C38-7042-4FB7-8E25-EDF77E2A6EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20E2F73-ADCE-492A-906E-B668A7AB4B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{DB0C4287-CE3D-4264-A616-40F356434A2C}"/>
+    <workbookView xWindow="8710" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{DB0C4287-CE3D-4264-A616-40F356434A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>巺芳·寂桐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百里屠苏·天墉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,23 +238,10 @@
     <t>翻开对手手牌</t>
   </si>
   <si>
-    <t>阿阮.神女</t>
-  </si>
-  <si>
     <t>露草流萤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谢衣.初七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏夷则.鲛人</t>
-  </si>
-  <si>
-    <t>闻人羽.天罡</t>
-  </si>
-  <si>
     <t>蓝衫偃师记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,9 +249,6 @@
     <t>交换后无效</t>
   </si>
   <si>
-    <t>清和真人.温留</t>
-  </si>
-  <si>
     <t>夏夷则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,9 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闻人羽.闺秀</t>
-  </si>
-  <si>
     <t>增加出现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,84 +265,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华月.魔化</t>
-  </si>
-  <si>
     <t>交换卡牌</t>
   </si>
   <si>
-    <t>阿阮.山鬼</t>
-  </si>
-  <si>
     <t>保证出现</t>
   </si>
   <si>
-    <t>乐无异.捐毒</t>
-  </si>
-  <si>
     <t>复制技能</t>
   </si>
   <si>
-    <t>禺期.无名</t>
-  </si>
-  <si>
     <t>古剑晗光;昭明;无名之剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乐无异.偃师</t>
-  </si>
-  <si>
-    <t>沈曦.魔化</t>
-  </si>
-  <si>
-    <t>夏夷则.太华</t>
-  </si>
-  <si>
-    <t>沈夜.紫微</t>
-  </si>
-  <si>
     <t>流月城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>司危.嫣然</t>
-  </si>
-  <si>
     <t>西陵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>岑缨.劲装</t>
-  </si>
-  <si>
     <t>一见喜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嫘祖.梦中人</t>
-  </si>
-  <si>
-    <t>巫炤.吞恨</t>
-  </si>
-  <si>
     <t>西陵曲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>云无月.魇魅</t>
-  </si>
-  <si>
     <t>北洛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北洛.冕服</t>
-  </si>
-  <si>
-    <t>刘兄.比木</t>
-  </si>
-  <si>
     <t>玳之梦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,16 +306,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缙云.卸甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以玉为戈</t>
   </si>
   <si>
-    <t>姬轩辕.玄鹿</t>
-  </si>
-  <si>
     <t>古剑奇谭三</t>
   </si>
   <si>
@@ -394,22 +319,95 @@
     <t>眠霜卧雪</t>
   </si>
   <si>
-    <t>玄戈&amp;霓裳.流光</t>
-  </si>
-  <si>
-    <t>岑缨.菡萏</t>
-  </si>
-  <si>
-    <t>北洛.辟邪</t>
-  </si>
-  <si>
     <t>首山梦时书</t>
   </si>
   <si>
-    <t>云无月.华裳</t>
-  </si>
-  <si>
-    <t>姬轩辕.绣春</t>
+    <t>谢衣·初七</t>
+  </si>
+  <si>
+    <t>阿阮·神女</t>
+  </si>
+  <si>
+    <t>夏夷则·鲛人</t>
+  </si>
+  <si>
+    <t>闻人羽·天罡</t>
+  </si>
+  <si>
+    <t>闻人羽·闺秀</t>
+  </si>
+  <si>
+    <t>华月·魔化</t>
+  </si>
+  <si>
+    <t>阿阮·山鬼</t>
+  </si>
+  <si>
+    <t>乐无异·捐毒</t>
+  </si>
+  <si>
+    <t>禺期·无名</t>
+  </si>
+  <si>
+    <t>乐无异·偃师</t>
+  </si>
+  <si>
+    <t>沈曦·魔化</t>
+  </si>
+  <si>
+    <t>夏夷则·太华</t>
+  </si>
+  <si>
+    <t>沈夜·紫微</t>
+  </si>
+  <si>
+    <t>司危·嫣然</t>
+  </si>
+  <si>
+    <t>岑缨·劲装</t>
+  </si>
+  <si>
+    <t>嫘祖·梦中人</t>
+  </si>
+  <si>
+    <t>巫炤·吞恨</t>
+  </si>
+  <si>
+    <t>云无月·魇魅</t>
+  </si>
+  <si>
+    <t>北洛·冕服</t>
+  </si>
+  <si>
+    <t>刘兄·比木</t>
+  </si>
+  <si>
+    <t>缙云·卸甲</t>
+  </si>
+  <si>
+    <t>姬轩辕·玄鹿</t>
+  </si>
+  <si>
+    <t>岑缨·菡萏</t>
+  </si>
+  <si>
+    <t>北洛·辟邪</t>
+  </si>
+  <si>
+    <t>云无月·华裳</t>
+  </si>
+  <si>
+    <t>姬轩辕·绣春</t>
+  </si>
+  <si>
+    <t>巽芳·寂桐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清河真人·温留</t>
+  </si>
+  <si>
+    <t>玄戈&amp;霓商·流光</t>
   </si>
 </sst>
 </file>
@@ -817,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72473EE4-7DE0-4976-9F62-A87D1A32864D}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -859,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -887,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -901,13 +899,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -916,7 +914,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -924,13 +922,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -939,7 +937,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -947,16 +945,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>20</v>
@@ -967,19 +965,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7">
         <v>30</v>
@@ -990,19 +988,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1013,19 +1011,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
         <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -1036,13 +1034,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1050,19 +1048,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1076,13 +1074,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1093,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1102,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1116,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1133,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15">
         <v>30</v>
@@ -1153,16 +1151,16 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16">
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1176,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1196,19 +1194,19 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1219,13 +1217,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -1236,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1253,19 +1251,19 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1273,19 +1271,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>30</v>
@@ -1296,13 +1294,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1310,16 +1308,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1327,16 +1325,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1347,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
         <v>37</v>
-      </c>
-      <c r="H26" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1361,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1384,16 +1382,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1401,10 +1399,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1415,13 +1413,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>20</v>
@@ -1432,16 +1430,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1452,16 +1450,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1469,13 +1467,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>30</v>
@@ -1486,13 +1484,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1500,13 +1498,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G35">
         <v>30</v>
@@ -1520,13 +1518,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G36">
         <v>30</v>
@@ -1540,13 +1538,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -1557,13 +1555,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>30</v>
@@ -1572,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1580,19 +1578,19 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="G39">
         <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1600,19 +1598,19 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="K40">
         <v>30</v>
@@ -1623,13 +1621,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -1637,16 +1635,16 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -1654,13 +1652,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -1671,10 +1669,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -1682,13 +1680,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
